--- a/data/pca/factorExposure/factorExposure_2019-05-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1220158918615048</v>
+        <v>0.07660983584170146</v>
       </c>
       <c r="C2">
-        <v>-0.01257290370706016</v>
+        <v>0.01717335847096908</v>
       </c>
       <c r="D2">
-        <v>0.02133446000933131</v>
+        <v>-0.03813718511533611</v>
       </c>
       <c r="E2">
-        <v>0.09658489208892897</v>
+        <v>0.1105732860962795</v>
       </c>
       <c r="F2">
-        <v>0.09544310994407779</v>
+        <v>-0.08400394828429759</v>
       </c>
       <c r="G2">
-        <v>0.1479945847561809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08500508578039433</v>
+      </c>
+      <c r="H2">
+        <v>0.09535753450532379</v>
+      </c>
+      <c r="I2">
+        <v>-0.02867089087985713</v>
+      </c>
+      <c r="J2">
+        <v>0.02759591582483667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2114969909581023</v>
+        <v>0.1621827027069572</v>
       </c>
       <c r="C3">
-        <v>0.09140641079897539</v>
+        <v>0.08570135922697654</v>
       </c>
       <c r="D3">
-        <v>-0.07694831837585496</v>
+        <v>0.03446606866860418</v>
       </c>
       <c r="E3">
-        <v>0.3150971848302317</v>
+        <v>0.2415329821262563</v>
       </c>
       <c r="F3">
-        <v>0.02557183344310327</v>
+        <v>-0.2962738800739595</v>
       </c>
       <c r="G3">
-        <v>0.3775082881694016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.00598207203892683</v>
+      </c>
+      <c r="H3">
+        <v>0.2923426712917702</v>
+      </c>
+      <c r="I3">
+        <v>-0.1434211069239387</v>
+      </c>
+      <c r="J3">
+        <v>0.3295072261419491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09976143106124638</v>
+        <v>0.07340400399296858</v>
       </c>
       <c r="C4">
-        <v>0.02755460272851332</v>
+        <v>0.03481005103956878</v>
       </c>
       <c r="D4">
-        <v>0.004152319115022418</v>
+        <v>-0.0248924359939058</v>
       </c>
       <c r="E4">
-        <v>0.07441997740190512</v>
+        <v>0.03531708747361394</v>
       </c>
       <c r="F4">
-        <v>0.05373869315896721</v>
+        <v>-0.08839799575060407</v>
       </c>
       <c r="G4">
-        <v>0.03165546602971087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03477031580478909</v>
+      </c>
+      <c r="H4">
+        <v>0.0392803457855227</v>
+      </c>
+      <c r="I4">
+        <v>-0.02985660082392006</v>
+      </c>
+      <c r="J4">
+        <v>0.04642004313705438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01345082810914098</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003294969416798243</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0003048560365504763</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002555611373112383</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003552487250678191</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0187540458014971</v>
+      </c>
+      <c r="H6">
+        <v>0.002201472529923284</v>
+      </c>
+      <c r="I6">
+        <v>0.0009449529068176484</v>
+      </c>
+      <c r="J6">
+        <v>0.0001931932550131028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04346675649915244</v>
+        <v>0.03395560858034122</v>
       </c>
       <c r="C7">
-        <v>0.005390074976643875</v>
+        <v>0.01798952528335333</v>
       </c>
       <c r="D7">
-        <v>0.02442834352683349</v>
+        <v>-0.01907846758961378</v>
       </c>
       <c r="E7">
-        <v>0.08391846025159674</v>
+        <v>0.03324719971311342</v>
       </c>
       <c r="F7">
-        <v>-0.02981878399030136</v>
+        <v>-0.05101596551009512</v>
       </c>
       <c r="G7">
-        <v>0.0180886076440169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01391800126896457</v>
+      </c>
+      <c r="H7">
+        <v>0.04531069302299347</v>
+      </c>
+      <c r="I7">
+        <v>-0.003050966198649559</v>
+      </c>
+      <c r="J7">
+        <v>0.01442649577864383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04264948295812873</v>
+        <v>0.0314385488487845</v>
       </c>
       <c r="C8">
-        <v>0.03876707668892889</v>
+        <v>0.03778815792355261</v>
       </c>
       <c r="D8">
-        <v>-0.007901002996328869</v>
+        <v>-0.007537521535016755</v>
       </c>
       <c r="E8">
-        <v>0.07030642669128004</v>
+        <v>0.03567032395349157</v>
       </c>
       <c r="F8">
-        <v>0.00268824030421424</v>
+        <v>-0.07732428303687881</v>
       </c>
       <c r="G8">
-        <v>0.04807903891845602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.003674779996794218</v>
+      </c>
+      <c r="H8">
+        <v>0.05575725973525044</v>
+      </c>
+      <c r="I8">
+        <v>-0.03022308112043878</v>
+      </c>
+      <c r="J8">
+        <v>0.03900976479887735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08670105233321626</v>
+        <v>0.06312761315791808</v>
       </c>
       <c r="C9">
-        <v>0.02800143696653049</v>
+        <v>0.03477854985995867</v>
       </c>
       <c r="D9">
-        <v>0.01864014920082537</v>
+        <v>-0.02601387717034688</v>
       </c>
       <c r="E9">
-        <v>0.06779440067672583</v>
+        <v>0.03221155899956744</v>
       </c>
       <c r="F9">
-        <v>0.03508674588340285</v>
+        <v>-0.0891692030612207</v>
       </c>
       <c r="G9">
-        <v>0.02277854649522879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02455143231735755</v>
+      </c>
+      <c r="H9">
+        <v>0.03303928729709157</v>
+      </c>
+      <c r="I9">
+        <v>-0.01045335060172925</v>
+      </c>
+      <c r="J9">
+        <v>0.009218324603627037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01110232706586497</v>
+        <v>0.01328320875435133</v>
       </c>
       <c r="C10">
-        <v>-0.1628846411971921</v>
+        <v>-0.1604367468093772</v>
       </c>
       <c r="D10">
-        <v>-0.01389468915163879</v>
+        <v>0.01696510242372066</v>
       </c>
       <c r="E10">
-        <v>0.04771998209691691</v>
+        <v>0.04799341485062285</v>
       </c>
       <c r="F10">
-        <v>0.01005882474065129</v>
+        <v>-0.03375220557556212</v>
       </c>
       <c r="G10">
-        <v>0.002099889833869301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02109283036223369</v>
+      </c>
+      <c r="H10">
+        <v>-0.009126651649290584</v>
+      </c>
+      <c r="I10">
+        <v>-0.1162526027972998</v>
+      </c>
+      <c r="J10">
+        <v>0.01406780945420669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05787081172383735</v>
+        <v>0.04913991745650068</v>
       </c>
       <c r="C11">
-        <v>0.003508642989389639</v>
+        <v>0.02229768028312936</v>
       </c>
       <c r="D11">
-        <v>-0.01221581553540923</v>
+        <v>-0.005792015695795402</v>
       </c>
       <c r="E11">
-        <v>0.03897778526469983</v>
+        <v>0.0382423366060041</v>
       </c>
       <c r="F11">
-        <v>0.009235975418584662</v>
+        <v>-0.02342236617383195</v>
       </c>
       <c r="G11">
-        <v>-0.004766485824328473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.002017418554537468</v>
+      </c>
+      <c r="H11">
+        <v>0.01731868776240347</v>
+      </c>
+      <c r="I11">
+        <v>0.01714180475958478</v>
+      </c>
+      <c r="J11">
+        <v>0.0123966690411391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04902749545295266</v>
+        <v>0.04771583401543749</v>
       </c>
       <c r="C12">
-        <v>0.008280565623207585</v>
+        <v>0.02190307349993419</v>
       </c>
       <c r="D12">
-        <v>-0.007131912609317983</v>
+        <v>-0.00741406157381912</v>
       </c>
       <c r="E12">
-        <v>0.02567808508565052</v>
+        <v>0.01183329770409522</v>
       </c>
       <c r="F12">
-        <v>0.002112000246647524</v>
+        <v>-0.02166552877868312</v>
       </c>
       <c r="G12">
-        <v>0.0008029490977381158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002510388253081438</v>
+      </c>
+      <c r="H12">
+        <v>0.007867765743094083</v>
+      </c>
+      <c r="I12">
+        <v>0.02151537417401865</v>
+      </c>
+      <c r="J12">
+        <v>0.004973557905399167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.0590516346874193</v>
+        <v>0.04011127348105081</v>
       </c>
       <c r="C13">
-        <v>0.01904053040515097</v>
+        <v>0.02220498749068748</v>
       </c>
       <c r="D13">
-        <v>-0.02318743928860277</v>
+        <v>-0.006516883170017173</v>
       </c>
       <c r="E13">
-        <v>0.1078062994739808</v>
+        <v>0.08073567981869362</v>
       </c>
       <c r="F13">
-        <v>0.02592101930540302</v>
+        <v>-0.06556629475726268</v>
       </c>
       <c r="G13">
-        <v>0.05418334013347351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.004440490903888045</v>
+      </c>
+      <c r="H13">
+        <v>0.05987207194799497</v>
+      </c>
+      <c r="I13">
+        <v>-0.01138785686232304</v>
+      </c>
+      <c r="J13">
+        <v>0.01916012750133881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03705323724174853</v>
+        <v>0.02746677683949691</v>
       </c>
       <c r="C14">
-        <v>0.008664681889511232</v>
+        <v>0.01495678427730324</v>
       </c>
       <c r="D14">
-        <v>0.01631874793879878</v>
+        <v>-0.02237895102654469</v>
       </c>
       <c r="E14">
-        <v>0.0238719363594669</v>
+        <v>0.01901823154970089</v>
       </c>
       <c r="F14">
-        <v>-0.003743330270589303</v>
+        <v>-0.03507571583665114</v>
       </c>
       <c r="G14">
-        <v>0.04996567411611035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01035986691115048</v>
+      </c>
+      <c r="H14">
+        <v>0.06088939374739522</v>
+      </c>
+      <c r="I14">
+        <v>-0.02100334972115286</v>
+      </c>
+      <c r="J14">
+        <v>-0.005795095549069586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04991589714445772</v>
+        <v>0.04236850144249737</v>
       </c>
       <c r="C16">
-        <v>0.02134718981499742</v>
+        <v>0.0298174422013586</v>
       </c>
       <c r="D16">
-        <v>-0.02061213341941996</v>
+        <v>-0.0009851348126981479</v>
       </c>
       <c r="E16">
-        <v>0.03273825524394372</v>
+        <v>0.03101355413861733</v>
       </c>
       <c r="F16">
-        <v>0.002232449923899097</v>
+        <v>-0.02278065547950353</v>
       </c>
       <c r="G16">
-        <v>-0.009634378579342288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005761526993190562</v>
+      </c>
+      <c r="H16">
+        <v>0.01655891054038209</v>
+      </c>
+      <c r="I16">
+        <v>0.0157330328009608</v>
+      </c>
+      <c r="J16">
+        <v>0.01201950436715383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05235303565745437</v>
+        <v>0.04392881839323692</v>
       </c>
       <c r="C19">
-        <v>0.03117889602171894</v>
+        <v>0.03632916698686894</v>
       </c>
       <c r="D19">
-        <v>-0.008974849550862985</v>
+        <v>-0.009214816127423565</v>
       </c>
       <c r="E19">
-        <v>0.07611558809779743</v>
+        <v>0.06142686451852555</v>
       </c>
       <c r="F19">
-        <v>-0.0003452063262944681</v>
+        <v>-0.06854778749107429</v>
       </c>
       <c r="G19">
-        <v>0.06803315725949857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.006892785254271653</v>
+      </c>
+      <c r="H19">
+        <v>0.08831796331947117</v>
+      </c>
+      <c r="I19">
+        <v>-0.04528553365741934</v>
+      </c>
+      <c r="J19">
+        <v>0.01577272352944372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03837163449077415</v>
+        <v>0.01907842682278048</v>
       </c>
       <c r="C20">
-        <v>0.03364772080057925</v>
+        <v>0.03338986945459414</v>
       </c>
       <c r="D20">
-        <v>0.002368688929465886</v>
+        <v>-0.01587690988550073</v>
       </c>
       <c r="E20">
-        <v>0.06577394313634302</v>
+        <v>0.0392045860440177</v>
       </c>
       <c r="F20">
-        <v>-0.01424591119031786</v>
+        <v>-0.05975691804489631</v>
       </c>
       <c r="G20">
-        <v>0.0492231327274059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01424620694148406</v>
+      </c>
+      <c r="H20">
+        <v>0.07608755749655897</v>
+      </c>
+      <c r="I20">
+        <v>-0.01780572551887568</v>
+      </c>
+      <c r="J20">
+        <v>0.04724539122192686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03703157898954631</v>
+        <v>0.01755577005994105</v>
       </c>
       <c r="C21">
-        <v>0.0171951026352052</v>
+        <v>0.0249682263789578</v>
       </c>
       <c r="D21">
-        <v>-0.01829238819008435</v>
+        <v>0.003286768716752426</v>
       </c>
       <c r="E21">
-        <v>0.08485779181016349</v>
+        <v>0.04266091295715487</v>
       </c>
       <c r="F21">
-        <v>0.04510487346208443</v>
+        <v>-0.067795812668415</v>
       </c>
       <c r="G21">
-        <v>0.05435054772473211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01612246143720179</v>
+      </c>
+      <c r="H21">
+        <v>0.0444722368964447</v>
+      </c>
+      <c r="I21">
+        <v>0.004942806644351532</v>
+      </c>
+      <c r="J21">
+        <v>-0.01312537187256588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04576790834550576</v>
+        <v>0.03990037110868962</v>
       </c>
       <c r="C24">
-        <v>0.01212262475974796</v>
+        <v>0.01894325861216151</v>
       </c>
       <c r="D24">
-        <v>-0.008622206632378622</v>
+        <v>-0.005831256070081039</v>
       </c>
       <c r="E24">
-        <v>0.04758495047637733</v>
+        <v>0.03554143782033193</v>
       </c>
       <c r="F24">
-        <v>0.007303364687259522</v>
+        <v>-0.02891527976141121</v>
       </c>
       <c r="G24">
-        <v>-0.01189331363327207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01040401731272426</v>
+      </c>
+      <c r="H24">
+        <v>0.01305447615012257</v>
+      </c>
+      <c r="I24">
+        <v>0.01098642269271576</v>
+      </c>
+      <c r="J24">
+        <v>0.01714769173890809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04964558766729707</v>
+        <v>0.04297596520266376</v>
       </c>
       <c r="C25">
-        <v>0.003226674287546887</v>
+        <v>0.02009687690054101</v>
       </c>
       <c r="D25">
-        <v>-0.0114791816676663</v>
+        <v>-0.003261511805359548</v>
       </c>
       <c r="E25">
-        <v>0.0384549689593286</v>
+        <v>0.0358316415515064</v>
       </c>
       <c r="F25">
-        <v>0.01101976552672244</v>
+        <v>-0.0327739080564999</v>
       </c>
       <c r="G25">
-        <v>-0.005330006746229152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002793649794325361</v>
+      </c>
+      <c r="H25">
+        <v>0.01028206893105809</v>
+      </c>
+      <c r="I25">
+        <v>0.01532880473694514</v>
+      </c>
+      <c r="J25">
+        <v>0.007950845406555697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.003695245323739421</v>
+        <v>0.01072338341552357</v>
       </c>
       <c r="C26">
-        <v>0.0165281198129699</v>
+        <v>0.01738338923737826</v>
       </c>
       <c r="D26">
-        <v>0.003326139363003647</v>
+        <v>0.001684026650040697</v>
       </c>
       <c r="E26">
-        <v>0.04982733516916718</v>
+        <v>0.04380548427682312</v>
       </c>
       <c r="F26">
-        <v>0.02560817524820468</v>
+        <v>-0.03106335156493996</v>
       </c>
       <c r="G26">
-        <v>0.02501004270339074</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.008635603318419258</v>
+      </c>
+      <c r="H26">
+        <v>0.03860747543366833</v>
+      </c>
+      <c r="I26">
+        <v>0.0003681171689941152</v>
+      </c>
+      <c r="J26">
+        <v>0.01638794319361893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1127286395293978</v>
+        <v>0.08716169852338172</v>
       </c>
       <c r="C27">
-        <v>0.01711423936705973</v>
+        <v>0.0272794761463889</v>
       </c>
       <c r="D27">
-        <v>0.003692457011425153</v>
+        <v>-0.02900548942199953</v>
       </c>
       <c r="E27">
-        <v>0.112183704311624</v>
+        <v>0.04570680764328377</v>
       </c>
       <c r="F27">
-        <v>0.02216433214393091</v>
+        <v>-0.07479864177076162</v>
       </c>
       <c r="G27">
-        <v>-0.01008709599273027</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.000807014189415588</v>
+      </c>
+      <c r="H27">
+        <v>0.01420191861009104</v>
+      </c>
+      <c r="I27">
+        <v>-0.003846987185569473</v>
+      </c>
+      <c r="J27">
+        <v>0.03015673564408571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01262962383354763</v>
+        <v>0.02464460413499042</v>
       </c>
       <c r="C28">
-        <v>-0.2400769896767656</v>
+        <v>-0.2325418676881038</v>
       </c>
       <c r="D28">
-        <v>-0.02341097288831437</v>
+        <v>0.02525889979775639</v>
       </c>
       <c r="E28">
-        <v>0.02848867586586517</v>
+        <v>0.04045043157279195</v>
       </c>
       <c r="F28">
-        <v>0.01285978310224196</v>
+        <v>-0.02751507524677098</v>
       </c>
       <c r="G28">
-        <v>-0.03109760430667765</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02672063384811463</v>
+      </c>
+      <c r="H28">
+        <v>-0.03244223713723117</v>
+      </c>
+      <c r="I28">
+        <v>-0.1651249791717568</v>
+      </c>
+      <c r="J28">
+        <v>0.03098186019414535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02035037344456981</v>
+        <v>0.01904863743766391</v>
       </c>
       <c r="C29">
-        <v>0.01803646076653827</v>
+        <v>0.01826619629071932</v>
       </c>
       <c r="D29">
-        <v>0.01945445468439624</v>
+        <v>-0.02142533375498068</v>
       </c>
       <c r="E29">
-        <v>0.03279195857549921</v>
+        <v>0.01412680742275367</v>
       </c>
       <c r="F29">
-        <v>0.01066247221667695</v>
+        <v>-0.04028133512652077</v>
       </c>
       <c r="G29">
-        <v>0.04845679595670365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01185042968616184</v>
+      </c>
+      <c r="H29">
+        <v>0.05777086566298786</v>
+      </c>
+      <c r="I29">
+        <v>-0.01205101778064826</v>
+      </c>
+      <c r="J29">
+        <v>-0.01609333148364303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1038190892041093</v>
+        <v>0.09806924110425369</v>
       </c>
       <c r="C30">
-        <v>0.01047179397677243</v>
+        <v>0.03573842843174429</v>
       </c>
       <c r="D30">
-        <v>0.002082174309338662</v>
+        <v>-0.03062567510390115</v>
       </c>
       <c r="E30">
-        <v>0.1269234191415195</v>
+        <v>0.08917838571275671</v>
       </c>
       <c r="F30">
-        <v>0.03638479635700261</v>
+        <v>-0.07096435772203692</v>
       </c>
       <c r="G30">
-        <v>-0.06525159359671032</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01600183816947487</v>
+      </c>
+      <c r="H30">
+        <v>0.01361560745460171</v>
+      </c>
+      <c r="I30">
+        <v>0.03018971718682884</v>
+      </c>
+      <c r="J30">
+        <v>-0.002405262711573484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05655514145193014</v>
+        <v>0.05901751276716333</v>
       </c>
       <c r="C31">
-        <v>0.01155718009462632</v>
+        <v>0.01824772561330827</v>
       </c>
       <c r="D31">
-        <v>0.0201545414241775</v>
+        <v>-0.01914614538688602</v>
       </c>
       <c r="E31">
-        <v>-0.01973420574493148</v>
+        <v>0.01253087852151001</v>
       </c>
       <c r="F31">
-        <v>0.005708304767056555</v>
+        <v>0.006614988962144471</v>
       </c>
       <c r="G31">
-        <v>0.02455543819428098</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03246657443440114</v>
+      </c>
+      <c r="H31">
+        <v>0.04900319571657853</v>
+      </c>
+      <c r="I31">
+        <v>-0.01832072296399724</v>
+      </c>
+      <c r="J31">
+        <v>-0.01565210220638164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06531524333306589</v>
+        <v>0.04529160844788834</v>
       </c>
       <c r="C32">
-        <v>0.02772227480087946</v>
+        <v>0.0435145881817322</v>
       </c>
       <c r="D32">
-        <v>-0.003174897585621382</v>
+        <v>-0.02196506459407178</v>
       </c>
       <c r="E32">
-        <v>0.1238376263183691</v>
+        <v>0.0559609114577107</v>
       </c>
       <c r="F32">
-        <v>-0.003419335632770055</v>
+        <v>-0.08215605519905224</v>
       </c>
       <c r="G32">
-        <v>0.04955582330418114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01424020353050208</v>
+      </c>
+      <c r="H32">
+        <v>0.05605980109643852</v>
+      </c>
+      <c r="I32">
+        <v>-0.02311528476168622</v>
+      </c>
+      <c r="J32">
+        <v>-0.001843664389565037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06872595361970679</v>
+        <v>0.05753455536997633</v>
       </c>
       <c r="C33">
-        <v>0.02925048329859746</v>
+        <v>0.04496001488431919</v>
       </c>
       <c r="D33">
-        <v>0.00140340651288035</v>
+        <v>-0.006852123310525955</v>
       </c>
       <c r="E33">
-        <v>0.0689796330213763</v>
+        <v>0.06313629169359418</v>
       </c>
       <c r="F33">
-        <v>0.04173524244560752</v>
+        <v>-0.05508451809125311</v>
       </c>
       <c r="G33">
-        <v>0.03109538227588246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0153429021242623</v>
+      </c>
+      <c r="H33">
+        <v>0.0537137786788127</v>
+      </c>
+      <c r="I33">
+        <v>0.01313410562409929</v>
+      </c>
+      <c r="J33">
+        <v>0.01122261962942989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04691359090569088</v>
+        <v>0.04152116634216436</v>
       </c>
       <c r="C34">
-        <v>0.01188515692556597</v>
+        <v>0.02449841669632124</v>
       </c>
       <c r="D34">
-        <v>-0.008524225577702544</v>
+        <v>-0.008868465716312142</v>
       </c>
       <c r="E34">
-        <v>0.02366324765933072</v>
+        <v>0.02611063195207128</v>
       </c>
       <c r="F34">
-        <v>-0.002906907774326209</v>
+        <v>-0.0249656733457137</v>
       </c>
       <c r="G34">
-        <v>0.01048220849955806</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001366657845564409</v>
+      </c>
+      <c r="H34">
+        <v>0.02011872209884182</v>
+      </c>
+      <c r="I34">
+        <v>0.01459312344220325</v>
+      </c>
+      <c r="J34">
+        <v>0.0004956756099983349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01281324716116537</v>
+        <v>0.01460424708748354</v>
       </c>
       <c r="C36">
-        <v>-0.009639196297429509</v>
+        <v>0.001222427919219472</v>
       </c>
       <c r="D36">
-        <v>0.004440105822329364</v>
+        <v>-0.007414136033514265</v>
       </c>
       <c r="E36">
-        <v>0.02258232562954256</v>
+        <v>0.01654590268102911</v>
       </c>
       <c r="F36">
-        <v>0.01088528502698053</v>
+        <v>-0.02472546308597194</v>
       </c>
       <c r="G36">
-        <v>0.02008716918151327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01383313384343704</v>
+      </c>
+      <c r="H36">
+        <v>0.03424395879978854</v>
+      </c>
+      <c r="I36">
+        <v>-0.006233937748273183</v>
+      </c>
+      <c r="J36">
+        <v>-0.01573323008448321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.0535257055168005</v>
+        <v>0.03018225019477873</v>
       </c>
       <c r="C38">
-        <v>0.003225307456892884</v>
+        <v>0.008023855639250814</v>
       </c>
       <c r="D38">
-        <v>0.02047876268364206</v>
+        <v>-0.007534738161831386</v>
       </c>
       <c r="E38">
-        <v>0.03488011927238097</v>
+        <v>0.0299896559596377</v>
       </c>
       <c r="F38">
-        <v>0.01063651747478993</v>
+        <v>-0.04316011008862529</v>
       </c>
       <c r="G38">
-        <v>0.03743495087608734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02180206195465204</v>
+      </c>
+      <c r="H38">
+        <v>0.02039404580958837</v>
+      </c>
+      <c r="I38">
+        <v>0.0006568529621964415</v>
+      </c>
+      <c r="J38">
+        <v>-0.02908085393381099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.0748431297881296</v>
+        <v>0.05807407996081462</v>
       </c>
       <c r="C39">
-        <v>0.01412681356687689</v>
+        <v>0.03581004465061291</v>
       </c>
       <c r="D39">
-        <v>-0.006181335583561547</v>
+        <v>-0.01683200832933547</v>
       </c>
       <c r="E39">
-        <v>0.04453802283685756</v>
+        <v>0.05237196197805673</v>
       </c>
       <c r="F39">
-        <v>0.02814106794806325</v>
+        <v>-0.03319093990798843</v>
       </c>
       <c r="G39">
-        <v>-0.003210871404431861</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01169925555008338</v>
+      </c>
+      <c r="H39">
+        <v>0.0187417195380226</v>
+      </c>
+      <c r="I39">
+        <v>0.03214582647106254</v>
+      </c>
+      <c r="J39">
+        <v>0.00751622072521805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07185745157806098</v>
+        <v>0.05628987579259288</v>
       </c>
       <c r="C40">
-        <v>0.03010662416267849</v>
+        <v>0.0345865021826509</v>
       </c>
       <c r="D40">
-        <v>-0.01091241804040131</v>
+        <v>-0.02358531180367545</v>
       </c>
       <c r="E40">
-        <v>0.1084083688865717</v>
+        <v>0.09031884253959199</v>
       </c>
       <c r="F40">
-        <v>0.03699704458640075</v>
+        <v>-0.06289623867427782</v>
       </c>
       <c r="G40">
-        <v>0.09713717712294294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.001209678838273582</v>
+      </c>
+      <c r="H40">
+        <v>0.08371796248350605</v>
+      </c>
+      <c r="I40">
+        <v>-0.005823428371424609</v>
+      </c>
+      <c r="J40">
+        <v>0.04385146222244088</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003943460559822073</v>
+        <v>0.001007884867216107</v>
       </c>
       <c r="C41">
-        <v>0.01183150385765147</v>
+        <v>0.01036478369407249</v>
       </c>
       <c r="D41">
-        <v>0.01449892497526568</v>
+        <v>-0.005130610958391655</v>
       </c>
       <c r="E41">
-        <v>0.009844545477038068</v>
+        <v>0.007426567317398157</v>
       </c>
       <c r="F41">
-        <v>0.02121319667126102</v>
+        <v>-0.01543177257100391</v>
       </c>
       <c r="G41">
-        <v>0.03339828856850915</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02485828517035812</v>
+      </c>
+      <c r="H41">
+        <v>0.04108529738889301</v>
+      </c>
+      <c r="I41">
+        <v>-0.02583005759620046</v>
+      </c>
+      <c r="J41">
+        <v>0.001224268337035861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.131546528830579</v>
+        <v>0.2335513941940343</v>
       </c>
       <c r="C42">
-        <v>0.1848689913156787</v>
+        <v>0.1644936961368729</v>
       </c>
       <c r="D42">
-        <v>-0.9229110810156791</v>
+        <v>0.9097089304462586</v>
       </c>
       <c r="E42">
-        <v>-0.1398373252022994</v>
+        <v>0.02144630804476858</v>
       </c>
       <c r="F42">
-        <v>-0.01862433301045734</v>
+        <v>0.2417565297532248</v>
       </c>
       <c r="G42">
-        <v>-0.1467404669369936</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.004056980793885874</v>
+      </c>
+      <c r="H42">
+        <v>-0.005561431024107043</v>
+      </c>
+      <c r="I42">
+        <v>-0.05816448600685889</v>
+      </c>
+      <c r="J42">
+        <v>0.008086341115525902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.007065516203126712</v>
+        <v>0.002744887370086763</v>
       </c>
       <c r="C43">
-        <v>0.01538882540644251</v>
+        <v>0.01320061611755316</v>
       </c>
       <c r="D43">
-        <v>0.0138887105400277</v>
+        <v>-0.006073309523578271</v>
       </c>
       <c r="E43">
-        <v>0.03328878579984372</v>
+        <v>0.01773202574199013</v>
       </c>
       <c r="F43">
-        <v>-0.0007681518684408348</v>
+        <v>-0.02288501032928351</v>
       </c>
       <c r="G43">
-        <v>0.02666783524286748</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0058409372058566</v>
+      </c>
+      <c r="H43">
+        <v>0.03923249459692639</v>
+      </c>
+      <c r="I43">
+        <v>-0.01596451836447106</v>
+      </c>
+      <c r="J43">
+        <v>0.004379194587176974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04177302663116639</v>
+        <v>0.02780401844239315</v>
       </c>
       <c r="C44">
-        <v>0.03627418843474052</v>
+        <v>0.03213144001449923</v>
       </c>
       <c r="D44">
-        <v>-0.005864032734955085</v>
+        <v>-0.002053622610518079</v>
       </c>
       <c r="E44">
-        <v>0.1070767754136749</v>
+        <v>0.08049461398589014</v>
       </c>
       <c r="F44">
-        <v>0.07056884758869374</v>
+        <v>-0.08998062699904896</v>
       </c>
       <c r="G44">
-        <v>0.151682658629252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02621852246056772</v>
+      </c>
+      <c r="H44">
+        <v>0.1208857516917394</v>
+      </c>
+      <c r="I44">
+        <v>-0.02439559299512033</v>
+      </c>
+      <c r="J44">
+        <v>0.01118589897762122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02121783150764664</v>
+        <v>0.02115446514468362</v>
       </c>
       <c r="C46">
-        <v>0.01472252147428268</v>
+        <v>0.02523948211724202</v>
       </c>
       <c r="D46">
-        <v>0.02187931897513783</v>
+        <v>-0.0195405520110419</v>
       </c>
       <c r="E46">
-        <v>0.02259624340356122</v>
+        <v>0.02923801143239702</v>
       </c>
       <c r="F46">
-        <v>0.02641066219589311</v>
+        <v>-0.03625210849281742</v>
       </c>
       <c r="G46">
-        <v>0.05133349716016166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01477291944764553</v>
+      </c>
+      <c r="H46">
+        <v>0.06262276236877912</v>
+      </c>
+      <c r="I46">
+        <v>-0.01916892018920366</v>
+      </c>
+      <c r="J46">
+        <v>0.00752302900429217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08078439823331394</v>
+        <v>0.08841721184647215</v>
       </c>
       <c r="C47">
-        <v>0.007637187055125557</v>
+        <v>0.01772028542615657</v>
       </c>
       <c r="D47">
-        <v>0.02217556262091022</v>
+        <v>-0.02402399149398095</v>
       </c>
       <c r="E47">
-        <v>-0.01882257757628145</v>
+        <v>-0.002873040675501748</v>
       </c>
       <c r="F47">
-        <v>0.001068955763579783</v>
+        <v>0.004668691475571984</v>
       </c>
       <c r="G47">
-        <v>0.04720944464315017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02837731531995072</v>
+      </c>
+      <c r="H47">
+        <v>0.06704318702499766</v>
+      </c>
+      <c r="I47">
+        <v>-0.02609650342840684</v>
+      </c>
+      <c r="J47">
+        <v>-0.002393097293681011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01413472174992612</v>
+        <v>0.01538542186881334</v>
       </c>
       <c r="C48">
-        <v>0.01628703854506627</v>
+        <v>0.01895915972402042</v>
       </c>
       <c r="D48">
-        <v>0.01199411059265548</v>
+        <v>-0.009173682079753599</v>
       </c>
       <c r="E48">
-        <v>0.03488947435777186</v>
+        <v>0.0188958079586376</v>
       </c>
       <c r="F48">
-        <v>0.01943494469776367</v>
+        <v>-0.03208303817627377</v>
       </c>
       <c r="G48">
-        <v>0.01209649942951763</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.008368158081580984</v>
+      </c>
+      <c r="H48">
+        <v>0.02453087505099541</v>
+      </c>
+      <c r="I48">
+        <v>-0.01778968793169753</v>
+      </c>
+      <c r="J48">
+        <v>0.001470771417629233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07772875789141896</v>
+        <v>0.08137700185076846</v>
       </c>
       <c r="C50">
-        <v>0.01994449633395933</v>
+        <v>0.02844522819201072</v>
       </c>
       <c r="D50">
-        <v>0.02495094521586976</v>
+        <v>-0.01989593363343826</v>
       </c>
       <c r="E50">
-        <v>-0.02779901605991124</v>
+        <v>-0.003736366824871037</v>
       </c>
       <c r="F50">
-        <v>-0.001347549078626868</v>
+        <v>-0.003380377718789464</v>
       </c>
       <c r="G50">
-        <v>0.02440041683802768</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.001325477458369904</v>
+      </c>
+      <c r="H50">
+        <v>0.05163510249255238</v>
+      </c>
+      <c r="I50">
+        <v>-0.0113436088722591</v>
+      </c>
+      <c r="J50">
+        <v>-0.0493186646470421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06895550448830927</v>
+        <v>0.04677210898852282</v>
       </c>
       <c r="C51">
-        <v>-0.01874583750371111</v>
+        <v>-0.002950647897161173</v>
       </c>
       <c r="D51">
-        <v>-0.01039226612387143</v>
+        <v>-0.008946837839073206</v>
       </c>
       <c r="E51">
-        <v>0.07198205852861816</v>
+        <v>0.07917014508903142</v>
       </c>
       <c r="F51">
-        <v>0.06031161288236386</v>
+        <v>-0.05310275044535301</v>
       </c>
       <c r="G51">
-        <v>0.04481359135792354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04431557912699715</v>
+      </c>
+      <c r="H51">
+        <v>0.06494695263150951</v>
+      </c>
+      <c r="I51">
+        <v>-0.03886939423723433</v>
+      </c>
+      <c r="J51">
+        <v>0.003786473174427593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1451963215297318</v>
+        <v>0.1297253486955344</v>
       </c>
       <c r="C53">
-        <v>0.01252151291196205</v>
+        <v>0.03515257552472682</v>
       </c>
       <c r="D53">
-        <v>0.04814302818445926</v>
+        <v>-0.04887650746587618</v>
       </c>
       <c r="E53">
-        <v>-0.03196938343527166</v>
+        <v>-0.02475920349295748</v>
       </c>
       <c r="F53">
-        <v>-0.007149006142801499</v>
+        <v>0.02166787548422069</v>
       </c>
       <c r="G53">
-        <v>0.007803264852728714</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02277578047661504</v>
+      </c>
+      <c r="H53">
+        <v>0.01054095437940867</v>
+      </c>
+      <c r="I53">
+        <v>-0.03359418472017929</v>
+      </c>
+      <c r="J53">
+        <v>0.0487973790128056</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02638269937974229</v>
+        <v>0.02419551203023519</v>
       </c>
       <c r="C54">
-        <v>-0.004124676752978943</v>
+        <v>0.00798125146492</v>
       </c>
       <c r="D54">
-        <v>0.02114859511057333</v>
+        <v>-0.02398307347597446</v>
       </c>
       <c r="E54">
-        <v>0.0329865696726538</v>
+        <v>0.0169347785555808</v>
       </c>
       <c r="F54">
-        <v>0.03517699676983135</v>
+        <v>-0.04171364650528797</v>
       </c>
       <c r="G54">
-        <v>0.05858868522662712</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02464008508905844</v>
+      </c>
+      <c r="H54">
+        <v>0.06309969965179907</v>
+      </c>
+      <c r="I54">
+        <v>-0.03721880352412637</v>
+      </c>
+      <c r="J54">
+        <v>-0.02261500689109147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09814455906727516</v>
+        <v>0.1019064808477991</v>
       </c>
       <c r="C55">
-        <v>-0.001310089842553766</v>
+        <v>0.01962144160195136</v>
       </c>
       <c r="D55">
-        <v>0.04019816784913044</v>
+        <v>-0.03085808941581502</v>
       </c>
       <c r="E55">
-        <v>0.004083503984538631</v>
+        <v>-0.03526454554617156</v>
       </c>
       <c r="F55">
-        <v>-0.02703842659297443</v>
+        <v>-0.00540705255427965</v>
       </c>
       <c r="G55">
-        <v>-0.004549985917069381</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01264454311522293</v>
+      </c>
+      <c r="H55">
+        <v>0.02508223576643401</v>
+      </c>
+      <c r="I55">
+        <v>-0.01436366625994172</v>
+      </c>
+      <c r="J55">
+        <v>0.03951075920474235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.177906658069778</v>
+        <v>0.1695148524687719</v>
       </c>
       <c r="C56">
-        <v>-0.01593124143265818</v>
+        <v>0.01677120181186974</v>
       </c>
       <c r="D56">
-        <v>0.08354642490768524</v>
+        <v>-0.08437167971739658</v>
       </c>
       <c r="E56">
-        <v>-0.05506611464666907</v>
+        <v>-0.06519574700155056</v>
       </c>
       <c r="F56">
-        <v>-0.064858404364116</v>
+        <v>0.03676334748194693</v>
       </c>
       <c r="G56">
-        <v>-0.02567421175890501</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02145762280100999</v>
+      </c>
+      <c r="H56">
+        <v>-0.03537056300316247</v>
+      </c>
+      <c r="I56">
+        <v>0.00491636350888711</v>
+      </c>
+      <c r="J56">
+        <v>0.0716496984634124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09025219329370907</v>
+        <v>0.06971116152872947</v>
       </c>
       <c r="C57">
-        <v>0.02173755629629305</v>
+        <v>0.02853784974813095</v>
       </c>
       <c r="D57">
-        <v>0.02050948359505431</v>
+        <v>-0.0126531513006979</v>
       </c>
       <c r="E57">
-        <v>0.06578521195524957</v>
+        <v>0.05445411977720827</v>
       </c>
       <c r="F57">
-        <v>0.0142076507510006</v>
+        <v>-0.04621528798321843</v>
       </c>
       <c r="G57">
-        <v>0.04953976081395715</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.003212229096765033</v>
+      </c>
+      <c r="H57">
+        <v>0.04469962208948158</v>
+      </c>
+      <c r="I57">
+        <v>0.01247600503851675</v>
+      </c>
+      <c r="J57">
+        <v>0.03682896199206517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1632556090377586</v>
+        <v>0.1935446297708814</v>
       </c>
       <c r="C58">
-        <v>-0.003252553931633104</v>
+        <v>0.04431787684963213</v>
       </c>
       <c r="D58">
-        <v>-0.07017640346889699</v>
+        <v>0.01233004114029094</v>
       </c>
       <c r="E58">
-        <v>0.1352308395246893</v>
+        <v>0.1588798088436936</v>
       </c>
       <c r="F58">
-        <v>-0.08548929415690587</v>
+        <v>-0.1138874599041317</v>
       </c>
       <c r="G58">
-        <v>0.3011985980332912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1811814598086544</v>
+      </c>
+      <c r="H58">
+        <v>0.3095531874330051</v>
+      </c>
+      <c r="I58">
+        <v>-0.05827888870300871</v>
+      </c>
+      <c r="J58">
+        <v>-0.6213300442265175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.000835505567761476</v>
+        <v>0.02866776908991691</v>
       </c>
       <c r="C59">
-        <v>-0.2039227553343688</v>
+        <v>-0.198619087833164</v>
       </c>
       <c r="D59">
-        <v>0.01047323319228152</v>
+        <v>-0.01044587943984061</v>
       </c>
       <c r="E59">
-        <v>0.04814116695705658</v>
+        <v>0.06221204223725001</v>
       </c>
       <c r="F59">
-        <v>0.01579865423908015</v>
+        <v>-0.02387127178920226</v>
       </c>
       <c r="G59">
-        <v>-0.02999905381889876</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005266314577812464</v>
+      </c>
+      <c r="H59">
+        <v>-0.02487420765323786</v>
+      </c>
+      <c r="I59">
+        <v>-0.07780575996902452</v>
+      </c>
+      <c r="J59">
+        <v>-0.02300079377953973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1872593134539275</v>
+        <v>0.1838409747609315</v>
       </c>
       <c r="C60">
-        <v>-0.1133483918154377</v>
+        <v>-0.05392814697873567</v>
       </c>
       <c r="D60">
-        <v>0.01134817284233303</v>
+        <v>-0.02688449282499686</v>
       </c>
       <c r="E60">
-        <v>0.1729683801127749</v>
+        <v>0.2050410339669632</v>
       </c>
       <c r="F60">
-        <v>0.06889408469392197</v>
+        <v>-0.08281397199439075</v>
       </c>
       <c r="G60">
-        <v>-0.1652996327220358</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04535878245730322</v>
+      </c>
+      <c r="H60">
+        <v>-0.2325291533221283</v>
+      </c>
+      <c r="I60">
+        <v>0.1069091730924064</v>
+      </c>
+      <c r="J60">
+        <v>0.002072716932959714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04771186006614297</v>
+        <v>0.03741232559724928</v>
       </c>
       <c r="C61">
-        <v>0.004924195343288009</v>
+        <v>0.02045757798625726</v>
       </c>
       <c r="D61">
-        <v>-0.01401215640934095</v>
+        <v>-0.001842696616819054</v>
       </c>
       <c r="E61">
-        <v>0.04569173457812333</v>
+        <v>0.03849234805582299</v>
       </c>
       <c r="F61">
-        <v>0.02758290785386694</v>
+        <v>-0.02679222692277589</v>
       </c>
       <c r="G61">
-        <v>-0.01454655122944787</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.007862791303836505</v>
+      </c>
+      <c r="H61">
+        <v>0.005355044092551093</v>
+      </c>
+      <c r="I61">
+        <v>0.03804346539402155</v>
+      </c>
+      <c r="J61">
+        <v>-0.01345109719814816</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.0408798623436429</v>
+        <v>0.02790903878443975</v>
       </c>
       <c r="C63">
-        <v>-0.007307512615781006</v>
+        <v>0.01459799534459652</v>
       </c>
       <c r="D63">
-        <v>0.01154672871607778</v>
+        <v>-0.01256600968939905</v>
       </c>
       <c r="E63">
-        <v>0.03755498145810286</v>
+        <v>0.02417142635533059</v>
       </c>
       <c r="F63">
-        <v>0.009055657972358012</v>
+        <v>-0.02060646178585793</v>
       </c>
       <c r="G63">
-        <v>0.01747910738887438</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.003567685350388101</v>
+      </c>
+      <c r="H63">
+        <v>0.04612128800286209</v>
+      </c>
+      <c r="I63">
+        <v>-0.03529500512468448</v>
+      </c>
+      <c r="J63">
+        <v>0.02678640543145918</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09132999248876068</v>
+        <v>0.06540352146406392</v>
       </c>
       <c r="C64">
-        <v>0.031402933953959</v>
+        <v>0.04028618088330314</v>
       </c>
       <c r="D64">
-        <v>0.05278624232507573</v>
+        <v>-0.03678526642558009</v>
       </c>
       <c r="E64">
-        <v>0.05610945440645551</v>
+        <v>0.01420085335875745</v>
       </c>
       <c r="F64">
-        <v>0.09692070680092166</v>
+        <v>-0.07216052880799255</v>
       </c>
       <c r="G64">
-        <v>-0.06870114096563944</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06554988481941829</v>
+      </c>
+      <c r="H64">
+        <v>-0.009044569368293613</v>
+      </c>
+      <c r="I64">
+        <v>-0.01959800397478499</v>
+      </c>
+      <c r="J64">
+        <v>0.07214345325143397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01475803029232927</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.003512531142920133</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0003534910881235256</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003765092867306408</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001773583968022476</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01947706470806337</v>
+      </c>
+      <c r="H65">
+        <v>-0.001493809750464527</v>
+      </c>
+      <c r="I65">
+        <v>0.003155433175263686</v>
+      </c>
+      <c r="J65">
+        <v>0.0001856966252886268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09859793493108204</v>
+        <v>0.07048786320064079</v>
       </c>
       <c r="C66">
-        <v>0.02019811894449101</v>
+        <v>0.04944860774773605</v>
       </c>
       <c r="D66">
-        <v>0.03084802771615913</v>
+        <v>-0.0433832605713306</v>
       </c>
       <c r="E66">
-        <v>0.08024159095693442</v>
+        <v>0.06673100396265316</v>
       </c>
       <c r="F66">
-        <v>0.04897944644150494</v>
+        <v>-0.04407642330672302</v>
       </c>
       <c r="G66">
-        <v>0.000504208393974363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01278827046826937</v>
+      </c>
+      <c r="H66">
+        <v>0.01116548977666113</v>
+      </c>
+      <c r="I66">
+        <v>0.04820611037420779</v>
+      </c>
+      <c r="J66">
+        <v>0.03674946133773713</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06145147657304006</v>
+        <v>0.04085546504427094</v>
       </c>
       <c r="C67">
-        <v>-0.01932734789401697</v>
+        <v>-0.006870955479600552</v>
       </c>
       <c r="D67">
-        <v>0.0094263242082768</v>
+        <v>-0.005744007496040214</v>
       </c>
       <c r="E67">
-        <v>0.02660250385476702</v>
+        <v>0.02822397731704845</v>
       </c>
       <c r="F67">
-        <v>0.008936668036764944</v>
+        <v>-0.02833262620487094</v>
       </c>
       <c r="G67">
-        <v>0.03319444973120975</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02840876890666568</v>
+      </c>
+      <c r="H67">
+        <v>0.004941968567694168</v>
+      </c>
+      <c r="I67">
+        <v>0.03659561725122198</v>
+      </c>
+      <c r="J67">
+        <v>-0.01108284641054313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.000620029251668245</v>
+        <v>0.03707585085375569</v>
       </c>
       <c r="C68">
-        <v>-0.2438152825054009</v>
+        <v>-0.2339974626923237</v>
       </c>
       <c r="D68">
-        <v>-0.007494644564950289</v>
+        <v>-0.0005260501962958486</v>
       </c>
       <c r="E68">
-        <v>0.03323592610294689</v>
+        <v>0.04871221898149916</v>
       </c>
       <c r="F68">
-        <v>-0.003642299401371661</v>
+        <v>-0.01924321281096394</v>
       </c>
       <c r="G68">
-        <v>-0.0110855631298176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.006935412125237562</v>
+      </c>
+      <c r="H68">
+        <v>-0.02539985616051727</v>
+      </c>
+      <c r="I68">
+        <v>-0.1698632584464364</v>
+      </c>
+      <c r="J68">
+        <v>-0.01541308208508035</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.0670049610550528</v>
+        <v>0.07016545706183497</v>
       </c>
       <c r="C69">
-        <v>0.006243210272904108</v>
+        <v>0.01571670800670833</v>
       </c>
       <c r="D69">
-        <v>0.02858135612684907</v>
+        <v>-0.03004793810680361</v>
       </c>
       <c r="E69">
-        <v>-0.0027818792186361</v>
+        <v>0.007360947967749026</v>
       </c>
       <c r="F69">
-        <v>-0.0008546230414166486</v>
+        <v>0.001659062863690232</v>
       </c>
       <c r="G69">
-        <v>0.02144113827933751</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02055756335902843</v>
+      </c>
+      <c r="H69">
+        <v>0.04724578007397826</v>
+      </c>
+      <c r="I69">
+        <v>-0.000850518080547882</v>
+      </c>
+      <c r="J69">
+        <v>-0.003116611285084764</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.00518578698843468</v>
+        <v>0.04085157592637848</v>
       </c>
       <c r="C71">
-        <v>-0.2553323542964896</v>
+        <v>-0.2471709064164669</v>
       </c>
       <c r="D71">
-        <v>-0.01112531089978636</v>
+        <v>0.01941957635165039</v>
       </c>
       <c r="E71">
-        <v>0.06300381836521469</v>
+        <v>0.07947448246416138</v>
       </c>
       <c r="F71">
-        <v>0.01973713833011639</v>
+        <v>-0.01498645455364436</v>
       </c>
       <c r="G71">
-        <v>-0.09939785061611754</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01988835991439214</v>
+      </c>
+      <c r="H71">
+        <v>-0.03982031689287915</v>
+      </c>
+      <c r="I71">
+        <v>-0.1441804229262188</v>
+      </c>
+      <c r="J71">
+        <v>-0.0244988863515024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1152534932693019</v>
+        <v>0.1156169836306299</v>
       </c>
       <c r="C72">
-        <v>-0.01622230494867422</v>
+        <v>0.005268509728547274</v>
       </c>
       <c r="D72">
-        <v>0.02747759969264863</v>
+        <v>-0.05643978970302326</v>
       </c>
       <c r="E72">
-        <v>0.0860181611535136</v>
+        <v>0.0628345913782075</v>
       </c>
       <c r="F72">
-        <v>0.01529304934577019</v>
+        <v>-0.06400199067527715</v>
       </c>
       <c r="G72">
-        <v>0.03882204758962959</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03199471847799353</v>
+      </c>
+      <c r="H72">
+        <v>-0.005347371233578265</v>
+      </c>
+      <c r="I72">
+        <v>0.01005444052198067</v>
+      </c>
+      <c r="J72">
+        <v>-0.1204150201917094</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2813661880547141</v>
+        <v>0.2745283406459486</v>
       </c>
       <c r="C73">
-        <v>-0.2077960481724335</v>
+        <v>-0.109730368797051</v>
       </c>
       <c r="D73">
-        <v>-0.04412965125085356</v>
+        <v>0.005804406347552218</v>
       </c>
       <c r="E73">
-        <v>0.3020818249721532</v>
+        <v>0.3257748125076609</v>
       </c>
       <c r="F73">
-        <v>0.09461708490905608</v>
+        <v>-0.1183970303092333</v>
       </c>
       <c r="G73">
-        <v>-0.4109542765332398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1045379511507367</v>
+      </c>
+      <c r="H73">
+        <v>-0.4417091407028773</v>
+      </c>
+      <c r="I73">
+        <v>0.3558939198902046</v>
+      </c>
+      <c r="J73">
+        <v>-0.09360764886027757</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1573307209955609</v>
+        <v>0.1513455081317935</v>
       </c>
       <c r="C74">
-        <v>-0.005625140356247579</v>
+        <v>0.01857713249881324</v>
       </c>
       <c r="D74">
-        <v>0.05037669597425887</v>
+        <v>-0.04742999767078415</v>
       </c>
       <c r="E74">
-        <v>0.006874412839499549</v>
+        <v>-0.02937316451720132</v>
       </c>
       <c r="F74">
-        <v>-0.04368227564547964</v>
+        <v>0.02614814591486654</v>
       </c>
       <c r="G74">
-        <v>-0.01490596399092811</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01507360135544396</v>
+      </c>
+      <c r="H74">
+        <v>-0.01890656905885235</v>
+      </c>
+      <c r="I74">
+        <v>0.01032397607143474</v>
+      </c>
+      <c r="J74">
+        <v>0.09440741440694908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2374402708951514</v>
+        <v>0.2434254939739914</v>
       </c>
       <c r="C75">
-        <v>-0.01109654861090683</v>
+        <v>0.02012870123315129</v>
       </c>
       <c r="D75">
-        <v>0.06998491149134106</v>
+        <v>-0.1018767990981411</v>
       </c>
       <c r="E75">
-        <v>-0.1151795805460191</v>
+        <v>-0.09460627986528324</v>
       </c>
       <c r="F75">
-        <v>-0.0671749573286833</v>
+        <v>0.09126901332797099</v>
       </c>
       <c r="G75">
-        <v>-0.0269250734089942</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006051924465453362</v>
+      </c>
+      <c r="H75">
+        <v>-0.01995439698735541</v>
+      </c>
+      <c r="I75">
+        <v>-0.05368435375602242</v>
+      </c>
+      <c r="J75">
+        <v>0.1168405544345351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2400242373212756</v>
+        <v>0.2627677618135671</v>
       </c>
       <c r="C76">
-        <v>-0.01069636475613034</v>
+        <v>0.0161582907780894</v>
       </c>
       <c r="D76">
-        <v>0.1112304740914927</v>
+        <v>-0.1284659238967992</v>
       </c>
       <c r="E76">
-        <v>-0.08980323605351399</v>
+        <v>-0.1338923799804415</v>
       </c>
       <c r="F76">
-        <v>-0.07599398187331777</v>
+        <v>0.09193557979186359</v>
       </c>
       <c r="G76">
-        <v>-0.03744440294081251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04272014728408065</v>
+      </c>
+      <c r="H76">
+        <v>-0.02694740235471165</v>
+      </c>
+      <c r="I76">
+        <v>0.02169710494507132</v>
+      </c>
+      <c r="J76">
+        <v>0.1367290460434134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1277826901853041</v>
+        <v>0.1297086457859095</v>
       </c>
       <c r="C77">
-        <v>0.02098348027343658</v>
+        <v>0.05061867639413892</v>
       </c>
       <c r="D77">
-        <v>-0.07682249744604615</v>
+        <v>0.04784158311109089</v>
       </c>
       <c r="E77">
-        <v>0.1635381302432661</v>
+        <v>0.1169177942764932</v>
       </c>
       <c r="F77">
-        <v>0.01310596051414086</v>
+        <v>-0.1244885991746704</v>
       </c>
       <c r="G77">
-        <v>0.1610918699949489</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02578512091692806</v>
+      </c>
+      <c r="H77">
+        <v>0.1806676809010821</v>
+      </c>
+      <c r="I77">
+        <v>-0.1614743598644963</v>
+      </c>
+      <c r="J77">
+        <v>0.1004480200169765</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09452274483338986</v>
+        <v>0.08934755247605325</v>
       </c>
       <c r="C78">
-        <v>0.03323918941616669</v>
+        <v>0.05760691419895363</v>
       </c>
       <c r="D78">
-        <v>-0.02534700201673195</v>
+        <v>0.0003121247019498443</v>
       </c>
       <c r="E78">
-        <v>0.06919362227757279</v>
+        <v>0.05012256576789161</v>
       </c>
       <c r="F78">
-        <v>0.0144940528269351</v>
+        <v>-0.07162429882010421</v>
       </c>
       <c r="G78">
-        <v>-0.01580913691352468</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.005196287161485036</v>
+      </c>
+      <c r="H78">
+        <v>0.02176519659073723</v>
+      </c>
+      <c r="I78">
+        <v>-0.02931063480993435</v>
+      </c>
+      <c r="J78">
+        <v>0.01822629821772402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07467777923627987</v>
+        <v>0.1194704035248</v>
       </c>
       <c r="C80">
-        <v>-0.00389337014136501</v>
+        <v>-0.1224375834325483</v>
       </c>
       <c r="D80">
-        <v>-0.007875051569088614</v>
+        <v>0.2038845982886077</v>
       </c>
       <c r="E80">
-        <v>0.003458781114015876</v>
+        <v>-0.6346789126604361</v>
       </c>
       <c r="F80">
-        <v>-0.05767658189584503</v>
+        <v>-0.696662217877046</v>
       </c>
       <c r="G80">
-        <v>0.1899115227229058</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01082394480753314</v>
+      </c>
+      <c r="H80">
+        <v>-0.1180633076011786</v>
+      </c>
+      <c r="I80">
+        <v>0.07149159021913591</v>
+      </c>
+      <c r="J80">
+        <v>-0.08171085883493555</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1608919217134218</v>
+        <v>0.1735668502411192</v>
       </c>
       <c r="C81">
-        <v>-0.01103671684756204</v>
+        <v>0.005035538436932895</v>
       </c>
       <c r="D81">
-        <v>0.06023345006862938</v>
+        <v>-0.0838273292949516</v>
       </c>
       <c r="E81">
-        <v>-0.1128268537021041</v>
+        <v>-0.1074030243698305</v>
       </c>
       <c r="F81">
-        <v>-0.09277584024270952</v>
+        <v>0.09566844017052545</v>
       </c>
       <c r="G81">
-        <v>-0.02047203485448212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02281461441143035</v>
+      </c>
+      <c r="H81">
+        <v>-0.01656055626880073</v>
+      </c>
+      <c r="I81">
+        <v>-0.02482951829405083</v>
+      </c>
+      <c r="J81">
+        <v>0.06534745052720067</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08058520000978919</v>
+        <v>0.06397550752562918</v>
       </c>
       <c r="C83">
-        <v>0.03494613650862587</v>
+        <v>0.0416975199524314</v>
       </c>
       <c r="D83">
-        <v>-0.09121185567634939</v>
+        <v>0.0393184653189964</v>
       </c>
       <c r="E83">
-        <v>0.02015709314244172</v>
+        <v>0.05378537740386279</v>
       </c>
       <c r="F83">
-        <v>0.06237929734112409</v>
+        <v>-0.02126726160199835</v>
       </c>
       <c r="G83">
-        <v>0.03636087214827217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04532097169638574</v>
+      </c>
+      <c r="H83">
+        <v>0.04297045723027023</v>
+      </c>
+      <c r="I83">
+        <v>-0.02670914349609449</v>
+      </c>
+      <c r="J83">
+        <v>0.08669933051758642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.242514034412341</v>
+        <v>0.2560050632129069</v>
       </c>
       <c r="C85">
-        <v>0.05175294277049683</v>
+        <v>0.05573792893395841</v>
       </c>
       <c r="D85">
-        <v>0.06527674955978326</v>
+        <v>-0.09062052606338364</v>
       </c>
       <c r="E85">
-        <v>-0.1327804961969805</v>
+        <v>-0.134683238823036</v>
       </c>
       <c r="F85">
-        <v>-0.06622474458442919</v>
+        <v>0.09026432529003751</v>
       </c>
       <c r="G85">
-        <v>-0.000725352962255056</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.001186261790904867</v>
+      </c>
+      <c r="H85">
+        <v>0.02132001371767709</v>
+      </c>
+      <c r="I85">
+        <v>-0.03924803895708762</v>
+      </c>
+      <c r="J85">
+        <v>0.1428601875307459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0470839589891462</v>
+        <v>0.02721630044676972</v>
       </c>
       <c r="C86">
-        <v>0.03656505132550105</v>
+        <v>0.0418225312032414</v>
       </c>
       <c r="D86">
-        <v>0.001266971061162134</v>
+        <v>-0.004634719184481309</v>
       </c>
       <c r="E86">
-        <v>0.05252781430699453</v>
+        <v>0.03119111477093158</v>
       </c>
       <c r="F86">
-        <v>-0.004198883954831136</v>
+        <v>-0.06010529870347851</v>
       </c>
       <c r="G86">
-        <v>0.03433430165395197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0009672796767665012</v>
+      </c>
+      <c r="H86">
+        <v>0.0495099120685401</v>
+      </c>
+      <c r="I86">
+        <v>-0.05399506086156253</v>
+      </c>
+      <c r="J86">
+        <v>-0.002806454222548611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.032510230566307</v>
+        <v>0.03895272455116579</v>
       </c>
       <c r="C87">
-        <v>-0.0561564040578038</v>
+        <v>-0.02264000063744899</v>
       </c>
       <c r="D87">
-        <v>0.01454942559952204</v>
+        <v>-0.004831190333955748</v>
       </c>
       <c r="E87">
-        <v>0.05269975170829135</v>
+        <v>0.06864643984707385</v>
       </c>
       <c r="F87">
-        <v>0.04864558767468073</v>
+        <v>-0.06031166985869393</v>
       </c>
       <c r="G87">
-        <v>-0.1203973916749475</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02522460651672621</v>
+      </c>
+      <c r="H87">
+        <v>-0.009655440509025035</v>
+      </c>
+      <c r="I87">
+        <v>0.01674810396022247</v>
+      </c>
+      <c r="J87">
+        <v>-0.07687528662752952</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03842585010230404</v>
+        <v>0.02541110746300171</v>
       </c>
       <c r="C88">
-        <v>0.02514439701416748</v>
+        <v>0.01660618253316713</v>
       </c>
       <c r="D88">
-        <v>0.008420913171409122</v>
+        <v>-0.01218778343764157</v>
       </c>
       <c r="E88">
-        <v>-0.005226426934801244</v>
+        <v>-0.02225607408841775</v>
       </c>
       <c r="F88">
-        <v>-0.01549672095097466</v>
+        <v>-0.0162389877742419</v>
       </c>
       <c r="G88">
-        <v>0.04827742743235312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02189485625712202</v>
+      </c>
+      <c r="H88">
+        <v>0.04403172056193363</v>
+      </c>
+      <c r="I88">
+        <v>0.02427763335287548</v>
+      </c>
+      <c r="J88">
+        <v>-0.01832600112644337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01092862300480955</v>
+        <v>0.05888248001895625</v>
       </c>
       <c r="C89">
-        <v>-0.4247560156405032</v>
+        <v>-0.3943852689532225</v>
       </c>
       <c r="D89">
-        <v>-0.09943011806762753</v>
+        <v>0.04403918203679957</v>
       </c>
       <c r="E89">
-        <v>-0.03861345774932162</v>
+        <v>0.07084347500868399</v>
       </c>
       <c r="F89">
-        <v>0.02669700155565013</v>
+        <v>0.02910595267037221</v>
       </c>
       <c r="G89">
-        <v>0.03988715544587772</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07290757633055558</v>
+      </c>
+      <c r="H89">
+        <v>0.003124515079985732</v>
+      </c>
+      <c r="I89">
+        <v>-0.2923998548409638</v>
+      </c>
+      <c r="J89">
+        <v>0.03320541552727838</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01093875985032572</v>
+        <v>0.03621440505232713</v>
       </c>
       <c r="C90">
-        <v>-0.3076260392371633</v>
+        <v>-0.3332974531527991</v>
       </c>
       <c r="D90">
-        <v>-0.02626926562556825</v>
+        <v>0.02806704322680112</v>
       </c>
       <c r="E90">
-        <v>0.02677315173843524</v>
+        <v>0.04056583847610763</v>
       </c>
       <c r="F90">
-        <v>0.01066522428541981</v>
+        <v>-0.01269089321097499</v>
       </c>
       <c r="G90">
-        <v>-0.06560340012773129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02232985714256815</v>
+      </c>
+      <c r="H90">
+        <v>-0.03185866727955031</v>
+      </c>
+      <c r="I90">
+        <v>-0.2097063817899602</v>
+      </c>
+      <c r="J90">
+        <v>-0.005669284239705108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3065286374844591</v>
+        <v>0.3175740467658695</v>
       </c>
       <c r="C91">
-        <v>0.0242295927789881</v>
+        <v>0.04065380697704852</v>
       </c>
       <c r="D91">
-        <v>0.08095901853411205</v>
+        <v>-0.1028340503650302</v>
       </c>
       <c r="E91">
-        <v>-0.2561953131690354</v>
+        <v>-0.216609317539404</v>
       </c>
       <c r="F91">
-        <v>-0.1768508845222312</v>
+        <v>0.1903306651918706</v>
       </c>
       <c r="G91">
-        <v>0.06007592065064502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04051513884895864</v>
+      </c>
+      <c r="H91">
+        <v>-0.02032167384073106</v>
+      </c>
+      <c r="I91">
+        <v>-0.07163893312405008</v>
+      </c>
+      <c r="J91">
+        <v>0.2633632108297924</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.02249726607462182</v>
+        <v>0.07583685406079982</v>
       </c>
       <c r="C92">
-        <v>-0.4380281363384775</v>
+        <v>-0.4594715827461836</v>
       </c>
       <c r="D92">
-        <v>-0.1879787630993014</v>
+        <v>0.07088546779179591</v>
       </c>
       <c r="E92">
-        <v>-0.1238741307787442</v>
+        <v>-0.0766714108905525</v>
       </c>
       <c r="F92">
-        <v>-0.1290275861054299</v>
+        <v>0.1430746587743958</v>
       </c>
       <c r="G92">
-        <v>0.4996806324808109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01180487390646125</v>
+      </c>
+      <c r="H92">
+        <v>0.5378113825776635</v>
+      </c>
+      <c r="I92">
+        <v>0.6533957471048979</v>
+      </c>
+      <c r="J92">
+        <v>0.1057245733068816</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02116418985780093</v>
+        <v>0.03724893990698543</v>
       </c>
       <c r="C93">
-        <v>-0.3677421549377644</v>
+        <v>-0.4038862638824169</v>
       </c>
       <c r="D93">
-        <v>-0.07114694300271486</v>
+        <v>0.05342535941048226</v>
       </c>
       <c r="E93">
-        <v>-0.0525212113905917</v>
+        <v>0.03074720997403931</v>
       </c>
       <c r="F93">
-        <v>-0.02492294145093141</v>
+        <v>0.05355651804557245</v>
       </c>
       <c r="G93">
-        <v>0.005836720815573468</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04134129241941375</v>
+      </c>
+      <c r="H93">
+        <v>-0.0396425663692725</v>
+      </c>
+      <c r="I93">
+        <v>-0.199004469299654</v>
+      </c>
+      <c r="J93">
+        <v>0.01899747073455544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2951394473886851</v>
+        <v>0.3207219722336592</v>
       </c>
       <c r="C94">
-        <v>-0.0344702743696192</v>
+        <v>-0.005934928570553255</v>
       </c>
       <c r="D94">
-        <v>0.05414586718160569</v>
+        <v>-0.1509251357834024</v>
       </c>
       <c r="E94">
-        <v>-0.3508904633736656</v>
+        <v>-0.2384646731577993</v>
       </c>
       <c r="F94">
-        <v>-0.4501410067421177</v>
+        <v>0.2835279493753116</v>
       </c>
       <c r="G94">
-        <v>-0.07509043482844961</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1883649369380807</v>
+      </c>
+      <c r="H94">
+        <v>0.05788698464340358</v>
+      </c>
+      <c r="I94">
+        <v>-0.1392003803912515</v>
+      </c>
+      <c r="J94">
+        <v>-0.4393924361961241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.2027946402980067</v>
+        <v>0.1438880345748935</v>
       </c>
       <c r="C95">
-        <v>-0.03433990892283244</v>
+        <v>0.05887802668977381</v>
       </c>
       <c r="D95">
-        <v>0.03802747135959647</v>
+        <v>-0.04602663736868613</v>
       </c>
       <c r="E95">
-        <v>-0.4753675274285348</v>
+        <v>-0.004572118043408959</v>
       </c>
       <c r="F95">
-        <v>0.7952437836767006</v>
+        <v>0.05805153214608678</v>
       </c>
       <c r="G95">
-        <v>0.1128314036025674</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9335392404278295</v>
+      </c>
+      <c r="H95">
+        <v>-0.03385955528296277</v>
+      </c>
+      <c r="I95">
+        <v>0.05952324596756665</v>
+      </c>
+      <c r="J95">
+        <v>-0.2175667917089851</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.216598118276347</v>
+        <v>0.2080462742389793</v>
       </c>
       <c r="C98">
-        <v>-0.1329342032563296</v>
+        <v>-0.06767388733141504</v>
       </c>
       <c r="D98">
-        <v>-0.03670231582868325</v>
+        <v>0.01373460879051328</v>
       </c>
       <c r="E98">
-        <v>0.1049087806114632</v>
+        <v>0.1920646633478669</v>
       </c>
       <c r="F98">
-        <v>0.05571994286601362</v>
+        <v>-0.02994976990603784</v>
       </c>
       <c r="G98">
-        <v>-0.2466694537669258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.04604494588012474</v>
+      </c>
+      <c r="H98">
+        <v>-0.2995180289337217</v>
+      </c>
+      <c r="I98">
+        <v>0.2115823008243607</v>
+      </c>
+      <c r="J98">
+        <v>0.009138307016959668</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02014002651239242</v>
+        <v>0.01241792204550865</v>
       </c>
       <c r="C101">
-        <v>0.01831083460923216</v>
+        <v>0.02843847207366219</v>
       </c>
       <c r="D101">
-        <v>0.02101047382504563</v>
+        <v>-0.02754820835034354</v>
       </c>
       <c r="E101">
-        <v>0.03345444415697506</v>
+        <v>0.03278835185185632</v>
       </c>
       <c r="F101">
-        <v>0.01050439323513163</v>
+        <v>-0.0588917724914504</v>
       </c>
       <c r="G101">
-        <v>0.04837152003952325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01115264214974387</v>
+      </c>
+      <c r="H101">
+        <v>0.1156607914409725</v>
+      </c>
+      <c r="I101">
+        <v>-0.005168454601703319</v>
+      </c>
+      <c r="J101">
+        <v>-0.1519745762794733</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1194584499449599</v>
+        <v>0.1225518334542264</v>
       </c>
       <c r="C102">
-        <v>0.006172736997692349</v>
+        <v>0.02606467636743991</v>
       </c>
       <c r="D102">
-        <v>0.05028465592161786</v>
+        <v>-0.05419605982015275</v>
       </c>
       <c r="E102">
-        <v>-0.07698659596687638</v>
+        <v>-0.07869835658819838</v>
       </c>
       <c r="F102">
-        <v>-0.004134592613288511</v>
+        <v>0.04508823529026992</v>
       </c>
       <c r="G102">
-        <v>-0.0001247450795110175</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02628597989191666</v>
+      </c>
+      <c r="H102">
+        <v>-0.007892895578036485</v>
+      </c>
+      <c r="I102">
+        <v>-0.04057938263298149</v>
+      </c>
+      <c r="J102">
+        <v>0.05011346339782929</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01748822418172291</v>
+        <v>0.02577160052997779</v>
       </c>
       <c r="C103">
-        <v>-0.002059858832105669</v>
+        <v>0.00171398083400025</v>
       </c>
       <c r="D103">
-        <v>0.01816012823351295</v>
+        <v>-0.01807033524090047</v>
       </c>
       <c r="E103">
-        <v>-0.02761351152981236</v>
+        <v>-0.02996459022281957</v>
       </c>
       <c r="F103">
-        <v>-0.02008522172028878</v>
+        <v>0.001830419575598897</v>
       </c>
       <c r="G103">
-        <v>-0.01134273831196275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01453234046741764</v>
+      </c>
+      <c r="H103">
+        <v>0.0004247108671944393</v>
+      </c>
+      <c r="I103">
+        <v>-0.02556082448218242</v>
+      </c>
+      <c r="J103">
+        <v>0.00648179596209667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
